--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_发现组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -93,9 +88,6 @@
   </si>
   <si>
     <t>发现组</t>
-  </si>
-  <si>
-    <t>【房东PC】【房东APP】售后管理-编辑备注字符数上限调整</t>
   </si>
   <si>
     <t>房东PC、房东APP</t>
@@ -179,6 +171,54 @@
     <t>陈佳文、吕崇新·、何瑞君</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】【房东APP】售后管理-编辑备注字符数上限调整</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东PC】【房东APP】语音验证码修改</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -195,6 +235,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -202,6 +243,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -209,6 +251,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -216,34 +259,40 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -256,6 +305,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -898,7 +948,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1010,15 +1060,23 @@
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="30">
+        <v>42563</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="P2" s="36"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="36"/>
@@ -1030,13 +1088,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>22</v>
@@ -1052,15 +1110,23 @@
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="33"/>
+      <c r="L3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="30">
+        <v>42563</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="28"/>
@@ -1072,13 +1138,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>28</v>
-      </c>
       <c r="D4" s="24" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -1094,37 +1160,67 @@
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="33"/>
+      <c r="L4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="30">
+        <v>42563</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>56</v>
+      </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
       <c r="S4" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T4" s="38"/>
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="30">
+        <v>42563</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="30">
+        <v>42563</v>
+      </c>
       <c r="I5" s="24"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="N5" s="30"/>
       <c r="O5" s="33"/>
       <c r="P5" s="28"/>
@@ -5234,28 +5330,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -6295,7 +6391,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -6327,40 +6423,40 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>18</v>

--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_发现组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_发现组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -196,27 +196,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>测试中</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>房东PC</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>【房东PC】【房东APP】售后管理-编辑备注字符数上限调整</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>【房东PC】【房东APP】语音验证码修改</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +932,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M5" sqref="B5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1088,7 +1072,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>20</v>
@@ -1144,7 +1128,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>22</v>
@@ -1187,40 +1171,18 @@
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
-      <c r="B5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="30">
-        <v>42563</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="30">
-        <v>42563</v>
-      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>57</v>
-      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="30"/>
       <c r="O5" s="33"/>
       <c r="P5" s="28"/>

--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_发现组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_发现组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.3.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
     <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -932,7 +937,7 @@
   <dimension ref="A1:T202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="B5:M5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
